--- a/202312.xlsx
+++ b/202312.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG2160L1X-Data\dannyaw\Desktop\mysite1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\N-5CG2160L1X-Data\dannyaw\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653C248D-F350-4AFB-A78D-09090DF8B6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C819D847-E517-47AC-B285-20AC50F7DAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="131">
   <si>
     <t/>
   </si>
@@ -93,27 +93,27 @@
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
-      <t>纳税人识别号（统一社会信用代码）：91370222MA3N59NK51</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>所属行业：康复辅具制造</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>纳税人名称：青岛海沁云科技有限公司</t>
+      <t>纳税人识别号（统一社会信用代码）：91370214MA3D3WYUX1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所属行业：其他纸制品制造</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>纳税人名称：青岛新澳旭照包装制品有限公司</t>
     </r>
   </si>
   <si>
@@ -142,7 +142,7 @@
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
-      <t>刘江平</t>
+      <t>王福勇</t>
     </r>
   </si>
   <si>
@@ -162,7 +162,7 @@
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">山东省青岛市高新
+      <t xml:space="preserve">山东省青岛市城阳
 </t>
     </r>
     <r>
@@ -171,7 +171,16 @@
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
-      <t>区华东路826号-74</t>
+      <t xml:space="preserve">区惜福镇街道抱虎
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>山路728号</t>
     </r>
   </si>
   <si>
@@ -191,7 +200,7 @@
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">山东省青岛市高新区
+      <t xml:space="preserve">山东省青岛市城阳区
 </t>
     </r>
     <r>
@@ -200,7 +209,16 @@
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
-      <t>华东路826号-74</t>
+      <t xml:space="preserve">惜福镇街道抱虎山路
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>728号</t>
     </r>
   </si>
   <si>
@@ -220,7 +238,7 @@
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">中国建设银行股份有限公司青岛同
+      <t xml:space="preserve">招商银行青岛城阳支行
 </t>
     </r>
     <r>
@@ -229,16 +247,7 @@
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">安路第二支行：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>37150198580100000189</t>
+      <t>532907461710766</t>
     </r>
   </si>
   <si>
@@ -429,6 +438,66 @@
         <charset val="134"/>
       </rPr>
       <t>（三）免、抵、退办法出口销售额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（四）免税销售额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其中：免税货物销售额</t>
     </r>
   </si>
   <si>
@@ -458,7 +527,7 @@
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
-      <t>（四）免税销售额</t>
+      <t>免税劳务销售额</t>
     </r>
   </si>
   <si>
@@ -488,66 +557,6 @@
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
-      <t>其中：免税货物销售额</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>——</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>——</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>免税劳务销售额</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>——</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>——</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
       <t>税款计算</t>
     </r>
   </si>
@@ -579,46 +588,6 @@
         <charset val="134"/>
       </rPr>
       <t>上期留抵税额</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>——</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进项税额转出</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>免、抵、退应退税额</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>——</t>
     </r>
   </si>
   <si>
@@ -638,7 +607,97 @@
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
+      <t>进项税额转出</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>免、抵、退应退税额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>按适用税率计算的纳税检查应补缴税额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应抵扣税额合计</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>17=12+13-14-15+16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——</t>
     </r>
   </si>
   <si>
@@ -654,6 +713,86 @@
   <si>
     <r>
       <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实际抵扣税额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应纳税额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>19=11-18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>期末留抵税额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20=17-18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>简易计税办法计算的应纳税额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按简易计税办法计算的纳税检查应补缴税额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
@@ -664,96 +803,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>应抵扣税额合计</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>17=12+13-14-15+16</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>——</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>——</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>实际抵扣税额</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>应纳税额</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>19=11-18</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>期末留抵税额</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>20=17-18</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
@@ -768,46 +817,6 @@
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
-      <t>简易计税办法计算的应纳税额</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>按简易计税办法计算的纳税检查应补缴税额</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>——</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>——</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
       <t>应纳税额减征额</t>
     </r>
   </si>
@@ -859,56 +868,6 @@
         <charset val="134"/>
       </rPr>
       <t>实收出口开具专用缴款书退税额</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>——</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>——</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>本期已缴税额</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>27=28+29+30+31</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>①分次预缴税额</t>
     </r>
   </si>
   <si>
@@ -938,6 +897,56 @@
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
+      <t>本期已缴税额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>27=28+29+30+31</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>①分次预缴税额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>②出口开具专用缴款书预缴税额</t>
     </r>
   </si>
@@ -1029,6 +1038,46 @@
         <charset val="134"/>
       </rPr>
       <t>33=25+26-27</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本期应补(退)税额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>34＝24-28-29</t>
     </r>
   </si>
   <si>
@@ -1044,96 +1093,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>——</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>本期应补(退)税额</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>34＝24-28-29</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>——</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>——</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>即征即退实际退税额</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>——</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>——</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>期初未缴查补税额</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
@@ -1144,6 +1103,116 @@
   <si>
     <r>
       <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>即征即退实际退税额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>期初未缴查补税额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本期入库查补税额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>期末未缴查补税额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>38=16+22+36-37</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
@@ -1154,126 +1223,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>本期入库查补税额</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>——</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>——</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>期末未缴查补税额</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>38=16+22+36-37</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>——</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>——</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>附加税费</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>城市维护建设税本期应补（退）税额</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>——</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>——</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>教育费附加本期应补（退）费额</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
@@ -1284,6 +1233,26 @@
   <si>
     <r>
       <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>附加税费</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>城市维护建设税本期应补（退）税额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
@@ -1298,17 +1267,57 @@
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
+      <t>——</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教育费附加本期应补（退）费额</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
       <t>地方教育附加本期应补（退）费额</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——</t>
     </r>
   </si>
   <si>
@@ -1426,7 +1435,7 @@
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">马亚男
+      <t xml:space="preserve">赵冬雪
 </t>
     </r>
     <r>
@@ -1461,7 +1470,7 @@
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">371122*********526
+      <t xml:space="preserve">230281*********52X
 </t>
     </r>
     <r>
@@ -1503,10 +1512,23 @@
   <si>
     <r>
       <rPr>
-        <sz val="7.5"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
+        <b/>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>受理人：青岛市电子税务局</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">受理税务机关（章）：国家税务总局青岛市城阳区税
 </t>
     </r>
     <r>
@@ -1516,62 +1538,10 @@
         <rFont val="SimSun"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">受理人：13702xdzswj
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">受理税务机关（章）：国家税务总局青岛高新技术产
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业开发区税务局</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
+      <t>务局</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1610,7 +1580,7 @@
     <numFmt numFmtId="178" formatCode="0_ "/>
     <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1674,25 +1644,13 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="7.5"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1702,8 +1660,11 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1730,10 +1691,21 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1744,9 +1716,7 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1756,7 +1726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1805,26 +1775,35 @@
     <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
@@ -1843,6 +1822,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2178,51 +2160,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL52"/>
+  <dimension ref="A1:AL53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:I6"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:XFD199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="3.25" customWidth="1"/>
-    <col min="3" max="3" width="5.125" customWidth="1"/>
-    <col min="4" max="4" width="5.625" customWidth="1"/>
-    <col min="5" max="5" width="1.5" customWidth="1"/>
-    <col min="6" max="6" width="5.625" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="1.875" customWidth="1"/>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="2" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="5.625" customWidth="1"/>
+    <col min="4" max="4" width="6.875" customWidth="1"/>
+    <col min="5" max="5" width="4.125" customWidth="1"/>
+    <col min="6" max="6" width="6.375" customWidth="1"/>
+    <col min="7" max="7" width="1.25" customWidth="1"/>
+    <col min="8" max="8" width="1.5" customWidth="1"/>
     <col min="9" max="9" width="2.625" customWidth="1"/>
-    <col min="10" max="10" width="3.25" customWidth="1"/>
+    <col min="10" max="10" width="3.375" customWidth="1"/>
     <col min="11" max="11" width="5.25" customWidth="1"/>
-    <col min="12" max="12" width="3.125" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="14" max="14" width="2.5" customWidth="1"/>
-    <col min="15" max="16" width="4" customWidth="1"/>
-    <col min="17" max="17" width="5.5" customWidth="1"/>
-    <col min="18" max="18" width="1.5" customWidth="1"/>
-    <col min="19" max="19" width="3.75" customWidth="1"/>
-    <col min="20" max="20" width="5" customWidth="1"/>
-    <col min="21" max="21" width="2.375" customWidth="1"/>
-    <col min="22" max="22" width="3.875" customWidth="1"/>
-    <col min="23" max="23" width="1.5" customWidth="1"/>
-    <col min="24" max="24" width="4.5" customWidth="1"/>
-    <col min="25" max="25" width="4.125" customWidth="1"/>
-    <col min="26" max="26" width="5.25" customWidth="1"/>
-    <col min="27" max="27" width="2.25" customWidth="1"/>
-    <col min="28" max="28" width="3.5" customWidth="1"/>
-    <col min="29" max="29" width="6.125" customWidth="1"/>
-    <col min="30" max="30" width="5.125" customWidth="1"/>
-    <col min="31" max="31" width="6.125" customWidth="1"/>
-    <col min="32" max="32" width="2.375" customWidth="1"/>
-    <col min="33" max="33" width="6.5" customWidth="1"/>
-    <col min="34" max="34" width="1.75" customWidth="1"/>
-    <col min="35" max="35" width="7.25" customWidth="1"/>
-    <col min="36" max="36" width="1.5" customWidth="1"/>
-    <col min="37" max="37" width="8.125" customWidth="1"/>
-    <col min="38" max="38" width="9.625" customWidth="1"/>
+    <col min="12" max="12" width="3" customWidth="1"/>
+    <col min="13" max="13" width="5.75" customWidth="1"/>
+    <col min="14" max="14" width="1.375" customWidth="1"/>
+    <col min="15" max="15" width="2.5" customWidth="1"/>
+    <col min="16" max="16" width="4.875" customWidth="1"/>
+    <col min="17" max="17" width="3" customWidth="1"/>
+    <col min="18" max="18" width="5.625" customWidth="1"/>
+    <col min="19" max="19" width="1.25" customWidth="1"/>
+    <col min="20" max="20" width="2.875" customWidth="1"/>
+    <col min="21" max="21" width="5.875" customWidth="1"/>
+    <col min="22" max="22" width="3.75" customWidth="1"/>
+    <col min="23" max="23" width="1.625" customWidth="1"/>
+    <col min="24" max="24" width="2.375" customWidth="1"/>
+    <col min="25" max="25" width="2.875" customWidth="1"/>
+    <col min="26" max="26" width="4.5" customWidth="1"/>
+    <col min="27" max="27" width="8.25" customWidth="1"/>
+    <col min="28" max="28" width="3.875" customWidth="1"/>
+    <col min="29" max="29" width="8" customWidth="1"/>
+    <col min="30" max="30" width="3" customWidth="1"/>
+    <col min="31" max="31" width="3.625" customWidth="1"/>
+    <col min="32" max="32" width="5.5" customWidth="1"/>
+    <col min="33" max="33" width="6" customWidth="1"/>
+    <col min="34" max="34" width="2.125" customWidth="1"/>
+    <col min="35" max="35" width="8.625" customWidth="1"/>
+    <col min="36" max="36" width="1.25" customWidth="1"/>
+    <col min="37" max="37" width="8.25" customWidth="1"/>
+    <col min="38" max="38" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="13.5" customHeight="1">
@@ -2259,20 +2242,20 @@
       <c r="N1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="O1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="2"/>
       <c r="Q1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="S1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="2"/>
       <c r="U1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2282,24 +2265,26 @@
       <c r="W1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="X1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="2"/>
       <c r="Z1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="AA1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="2"/>
       <c r="AC1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE1" s="2"/>
+      <c r="AE1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
       <c r="AH1" s="2"/>
@@ -2342,20 +2327,20 @@
       <c r="N2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="O2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2"/>
       <c r="Q2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="S2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2"/>
       <c r="U2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2365,24 +2350,26 @@
       <c r="W2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="X2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2"/>
       <c r="Z2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="AA2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2"/>
       <c r="AC2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE2" s="2"/>
+      <c r="AE2" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
@@ -2426,20 +2413,20 @@
       <c r="N3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="O3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="S3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2"/>
       <c r="U3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2449,24 +2436,26 @@
       <c r="W3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="X3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2"/>
       <c r="Z3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="AA3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2"/>
       <c r="AC3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AD3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AE3" s="2"/>
+      <c r="AE3" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
@@ -2512,20 +2501,20 @@
       <c r="N4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="O4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7"/>
       <c r="Q4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="S4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" s="7"/>
       <c r="U4" s="7" t="s">
         <v>0</v>
       </c>
@@ -2535,26 +2524,28 @@
       <c r="W4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="X4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="8" t="s">
-        <v>0</v>
-      </c>
       <c r="Z4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="AA4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="9"/>
       <c r="AC4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="AD4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AE4" s="2"/>
+      <c r="AE4" s="9" t="s">
+        <v>0</v>
+      </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
@@ -2598,20 +2589,20 @@
       <c r="N5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="O5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2"/>
       <c r="Q5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="S5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2"/>
       <c r="U5" s="2" t="s">
         <v>0</v>
       </c>
@@ -2621,26 +2612,28 @@
       <c r="W5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="X5" s="8" t="s">
+      <c r="X5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="8" t="s">
-        <v>0</v>
-      </c>
       <c r="Z5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="AA5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="9"/>
       <c r="AC5" s="9" t="s">
         <v>0</v>
       </c>
       <c r="AD5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AE5" s="2"/>
+      <c r="AE5" s="9" t="s">
+        <v>0</v>
+      </c>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
@@ -2649,7 +2642,7 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
     </row>
-    <row r="6" spans="1:38" ht="31.35" customHeight="1">
+    <row r="6" spans="1:38" ht="31.5" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
@@ -2688,55 +2681,57 @@
       <c r="N6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="R6" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="S6" s="22" t="s">
+      <c r="Q6" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="T6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="U6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="V6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="W6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="X6" s="12" t="s">
+      <c r="U6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="X6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Y6" s="12" t="s">
-        <v>0</v>
-      </c>
       <c r="Z6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AA6" s="10" t="s">
+      <c r="AA6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AB6" s="10" t="s">
-        <v>0</v>
-      </c>
       <c r="AC6" s="10" t="s">
         <v>0</v>
       </c>
       <c r="AD6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="AE6" s="2"/>
+      <c r="AE6" s="10" t="s">
+        <v>0</v>
+      </c>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
@@ -2745,7 +2740,7 @@
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
     </row>
-    <row r="7" spans="1:38" ht="31.5" customHeight="1">
+    <row r="7" spans="1:38" ht="21" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>16</v>
       </c>
@@ -2786,22 +2781,22 @@
       <c r="N7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11" t="s">
-        <v>0</v>
-      </c>
+      <c r="O7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="11"/>
       <c r="Q7" s="11" t="s">
         <v>0</v>
       </c>
       <c r="R7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="S7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="12" t="s">
-        <v>0</v>
-      </c>
       <c r="U7" s="12" t="s">
         <v>0</v>
       </c>
@@ -2811,26 +2806,28 @@
       <c r="W7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="X7" s="14">
-        <v>13370855285</v>
+      <c r="X7" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="Y7" s="14">
-        <v>13370855285</v>
+        <v>15953217193</v>
       </c>
       <c r="Z7" s="14">
-        <v>13370855285</v>
-      </c>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11" t="s">
-        <v>0</v>
-      </c>
+        <v>15953217193</v>
+      </c>
+      <c r="AA7" s="14">
+        <v>15953217193</v>
+      </c>
+      <c r="AB7" s="11"/>
       <c r="AC7" s="11" t="s">
         <v>0</v>
       </c>
       <c r="AD7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
@@ -2876,22 +2873,22 @@
       <c r="N8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="12" t="s">
-        <v>0</v>
-      </c>
       <c r="Q8" s="12" t="s">
         <v>0</v>
       </c>
       <c r="R8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13" t="s">
-        <v>0</v>
-      </c>
+      <c r="S8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" s="13"/>
       <c r="U8" s="13" t="s">
         <v>0</v>
       </c>
@@ -2901,26 +2898,28 @@
       <c r="W8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="X8" s="12" t="s">
+      <c r="X8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Y8" s="12" t="s">
-        <v>0</v>
-      </c>
       <c r="Z8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13" t="s">
-        <v>0</v>
-      </c>
+      <c r="AA8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="13"/>
       <c r="AC8" s="13" t="s">
         <v>0</v>
       </c>
       <c r="AD8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AE8" s="2"/>
+      <c r="AE8" s="13" t="s">
+        <v>0</v>
+      </c>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
@@ -2962,55 +2961,57 @@
       <c r="N9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="O9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="R9" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="S9" s="24" t="s">
+      <c r="Q9" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="T9" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="U9" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="V9" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="W9" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="X9" s="24" t="s">
+      <c r="U9" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="W9" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="X9" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Y9" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="12" t="s">
+      <c r="Z9" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AB9" s="12" t="s">
-        <v>0</v>
-      </c>
       <c r="AC9" s="12" t="s">
         <v>0</v>
       </c>
       <c r="AD9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AE9" s="2"/>
+      <c r="AE9" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
@@ -3058,55 +3059,57 @@
       <c r="N10" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="27">
-        <v>1648034.31</v>
-      </c>
-      <c r="P10" s="27">
-        <v>1648034.31</v>
-      </c>
-      <c r="Q10" s="27">
-        <v>1648034.31</v>
-      </c>
-      <c r="R10" s="27">
-        <v>1648034.31</v>
-      </c>
-      <c r="S10" s="27">
-        <v>20155459.579999998</v>
-      </c>
-      <c r="T10" s="27">
-        <v>20155459.579999998</v>
-      </c>
-      <c r="U10" s="27">
-        <v>20155459.579999998</v>
-      </c>
-      <c r="V10" s="27">
-        <v>20155459.579999998</v>
-      </c>
-      <c r="W10" s="27">
-        <v>20155459.579999998</v>
-      </c>
-      <c r="X10" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="2"/>
+      <c r="O10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="30">
+        <v>721281.04</v>
+      </c>
+      <c r="Q10" s="30">
+        <v>721281.04</v>
+      </c>
+      <c r="R10" s="30">
+        <v>721281.04</v>
+      </c>
+      <c r="S10" s="30">
+        <v>721281.04</v>
+      </c>
+      <c r="T10" s="30">
+        <v>53786431.450000003</v>
+      </c>
+      <c r="U10" s="30">
+        <v>53786431.450000003</v>
+      </c>
+      <c r="V10" s="30">
+        <v>53786431.450000003</v>
+      </c>
+      <c r="W10" s="30">
+        <v>53786431.450000003</v>
+      </c>
+      <c r="X10" s="30">
+        <v>53786431.450000003</v>
+      </c>
+      <c r="Y10" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="29">
+        <v>0</v>
+      </c>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
@@ -3152,55 +3155,57 @@
       <c r="N11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O11" s="27">
-        <v>1648034.31</v>
-      </c>
-      <c r="P11" s="27">
-        <v>1648034.31</v>
-      </c>
-      <c r="Q11" s="27">
-        <v>1648034.31</v>
-      </c>
-      <c r="R11" s="27">
-        <v>1648034.31</v>
-      </c>
-      <c r="S11" s="27">
-        <v>20155459.579999998</v>
-      </c>
-      <c r="T11" s="27">
-        <v>20155459.579999998</v>
-      </c>
-      <c r="U11" s="27">
-        <v>20155459.579999998</v>
-      </c>
-      <c r="V11" s="27">
-        <v>20155459.579999998</v>
-      </c>
-      <c r="W11" s="27">
-        <v>20155459.579999998</v>
-      </c>
-      <c r="X11" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="2"/>
+      <c r="O11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="30">
+        <v>721281.04</v>
+      </c>
+      <c r="Q11" s="30">
+        <v>721281.04</v>
+      </c>
+      <c r="R11" s="30">
+        <v>721281.04</v>
+      </c>
+      <c r="S11" s="30">
+        <v>721281.04</v>
+      </c>
+      <c r="T11" s="30">
+        <v>53786431.450000003</v>
+      </c>
+      <c r="U11" s="30">
+        <v>53786431.450000003</v>
+      </c>
+      <c r="V11" s="30">
+        <v>53786431.450000003</v>
+      </c>
+      <c r="W11" s="30">
+        <v>53786431.450000003</v>
+      </c>
+      <c r="X11" s="30">
+        <v>53786431.450000003</v>
+      </c>
+      <c r="Y11" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="29">
+        <v>0</v>
+      </c>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
@@ -3214,7 +3219,7 @@
       <c r="B12" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="16" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="11"/>
@@ -3246,55 +3251,57 @@
       <c r="N12" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O12" s="26">
-        <v>0</v>
-      </c>
-      <c r="P12" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="26">
-        <v>0</v>
-      </c>
-      <c r="R12" s="26">
-        <v>0</v>
-      </c>
-      <c r="S12" s="26">
-        <v>0</v>
-      </c>
-      <c r="T12" s="26">
-        <v>0</v>
-      </c>
-      <c r="U12" s="26">
-        <v>0</v>
-      </c>
-      <c r="V12" s="26">
-        <v>0</v>
-      </c>
-      <c r="W12" s="26">
-        <v>0</v>
-      </c>
-      <c r="X12" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="2"/>
+      <c r="O12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="29">
+        <v>0</v>
+      </c>
+      <c r="R12" s="29">
+        <v>0</v>
+      </c>
+      <c r="S12" s="29">
+        <v>0</v>
+      </c>
+      <c r="T12" s="29">
+        <v>0</v>
+      </c>
+      <c r="U12" s="29">
+        <v>0</v>
+      </c>
+      <c r="V12" s="29">
+        <v>0</v>
+      </c>
+      <c r="W12" s="29">
+        <v>0</v>
+      </c>
+      <c r="X12" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="29">
+        <v>0</v>
+      </c>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
@@ -3308,7 +3315,7 @@
       <c r="B13" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="11"/>
@@ -3340,55 +3347,57 @@
       <c r="N13" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O13" s="26">
-        <v>0</v>
-      </c>
-      <c r="P13" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="26">
-        <v>0</v>
-      </c>
-      <c r="R13" s="26">
-        <v>0</v>
-      </c>
-      <c r="S13" s="26">
-        <v>0</v>
-      </c>
-      <c r="T13" s="26">
-        <v>0</v>
-      </c>
-      <c r="U13" s="26">
-        <v>0</v>
-      </c>
-      <c r="V13" s="26">
-        <v>0</v>
-      </c>
-      <c r="W13" s="26">
-        <v>0</v>
-      </c>
-      <c r="X13" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="2"/>
+      <c r="O13" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="29">
+        <v>0</v>
+      </c>
+      <c r="R13" s="29">
+        <v>0</v>
+      </c>
+      <c r="S13" s="29">
+        <v>0</v>
+      </c>
+      <c r="T13" s="29">
+        <v>0</v>
+      </c>
+      <c r="U13" s="29">
+        <v>0</v>
+      </c>
+      <c r="V13" s="29">
+        <v>0</v>
+      </c>
+      <c r="W13" s="29">
+        <v>0</v>
+      </c>
+      <c r="X13" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="29">
+        <v>0</v>
+      </c>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
@@ -3434,55 +3443,57 @@
       <c r="N14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O14" s="26">
-        <v>0</v>
-      </c>
-      <c r="P14" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="26">
-        <v>0</v>
-      </c>
-      <c r="R14" s="26">
-        <v>0</v>
-      </c>
-      <c r="S14" s="26">
-        <v>0</v>
-      </c>
-      <c r="T14" s="26">
-        <v>0</v>
-      </c>
-      <c r="U14" s="26">
-        <v>0</v>
-      </c>
-      <c r="V14" s="26">
-        <v>0</v>
-      </c>
-      <c r="W14" s="26">
-        <v>0</v>
-      </c>
-      <c r="X14" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="2"/>
+      <c r="O14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="29">
+        <v>0</v>
+      </c>
+      <c r="R14" s="29">
+        <v>0</v>
+      </c>
+      <c r="S14" s="29">
+        <v>0</v>
+      </c>
+      <c r="T14" s="29">
+        <v>0</v>
+      </c>
+      <c r="U14" s="29">
+        <v>0</v>
+      </c>
+      <c r="V14" s="29">
+        <v>0</v>
+      </c>
+      <c r="W14" s="29">
+        <v>0</v>
+      </c>
+      <c r="X14" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="29">
+        <v>0</v>
+      </c>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
@@ -3528,55 +3539,57 @@
       <c r="N15" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O15" s="26">
-        <v>0</v>
-      </c>
-      <c r="P15" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="26">
-        <v>0</v>
-      </c>
-      <c r="R15" s="26">
-        <v>0</v>
-      </c>
-      <c r="S15" s="26">
-        <v>0</v>
-      </c>
-      <c r="T15" s="26">
-        <v>0</v>
-      </c>
-      <c r="U15" s="26">
-        <v>0</v>
-      </c>
-      <c r="V15" s="26">
-        <v>0</v>
-      </c>
-      <c r="W15" s="26">
-        <v>0</v>
-      </c>
-      <c r="X15" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="2"/>
+      <c r="O15" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="29">
+        <v>0</v>
+      </c>
+      <c r="R15" s="29">
+        <v>0</v>
+      </c>
+      <c r="S15" s="29">
+        <v>0</v>
+      </c>
+      <c r="T15" s="29">
+        <v>0</v>
+      </c>
+      <c r="U15" s="29">
+        <v>0</v>
+      </c>
+      <c r="V15" s="29">
+        <v>0</v>
+      </c>
+      <c r="W15" s="29">
+        <v>0</v>
+      </c>
+      <c r="X15" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="29">
+        <v>0</v>
+      </c>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
@@ -3585,7 +3598,7 @@
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
     </row>
-    <row r="16" spans="1:38" ht="17.25" customHeight="1">
+    <row r="16" spans="1:38" ht="12.2" customHeight="1">
       <c r="A16" s="13"/>
       <c r="B16" s="13" t="s">
         <v>0</v>
@@ -3622,55 +3635,57 @@
       <c r="N16" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O16" s="26">
-        <v>0</v>
-      </c>
-      <c r="P16" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="26">
-        <v>0</v>
-      </c>
-      <c r="R16" s="26">
-        <v>0</v>
-      </c>
-      <c r="S16" s="26">
-        <v>0</v>
-      </c>
-      <c r="T16" s="26">
-        <v>0</v>
-      </c>
-      <c r="U16" s="26">
-        <v>0</v>
-      </c>
-      <c r="V16" s="26">
-        <v>0</v>
-      </c>
-      <c r="W16" s="26">
-        <v>0</v>
-      </c>
-      <c r="X16" s="28" t="s">
+      <c r="O16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="29">
+        <v>0</v>
+      </c>
+      <c r="R16" s="29">
+        <v>0</v>
+      </c>
+      <c r="S16" s="29">
+        <v>0</v>
+      </c>
+      <c r="T16" s="29">
+        <v>0</v>
+      </c>
+      <c r="U16" s="29">
+        <v>0</v>
+      </c>
+      <c r="V16" s="29">
+        <v>0</v>
+      </c>
+      <c r="W16" s="29">
+        <v>0</v>
+      </c>
+      <c r="X16" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="Y16" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="28" t="s">
+      <c r="Z16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AB16" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="2"/>
+      <c r="AC16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
@@ -3679,7 +3694,7 @@
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
     </row>
-    <row r="17" spans="1:38" ht="17.25" customHeight="1">
+    <row r="17" spans="1:38" ht="12.2" customHeight="1">
       <c r="A17" s="13"/>
       <c r="B17" s="13" t="s">
         <v>0</v>
@@ -3716,55 +3731,57 @@
       <c r="N17" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O17" s="26">
-        <v>0</v>
-      </c>
-      <c r="P17" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="26">
-        <v>0</v>
-      </c>
-      <c r="R17" s="26">
-        <v>0</v>
-      </c>
-      <c r="S17" s="26">
-        <v>0</v>
-      </c>
-      <c r="T17" s="26">
-        <v>0</v>
-      </c>
-      <c r="U17" s="26">
-        <v>0</v>
-      </c>
-      <c r="V17" s="26">
-        <v>0</v>
-      </c>
-      <c r="W17" s="26">
-        <v>0</v>
-      </c>
-      <c r="X17" s="28" t="s">
+      <c r="O17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="29">
+        <v>0</v>
+      </c>
+      <c r="R17" s="29">
+        <v>0</v>
+      </c>
+      <c r="S17" s="29">
+        <v>0</v>
+      </c>
+      <c r="T17" s="29">
+        <v>0</v>
+      </c>
+      <c r="U17" s="29">
+        <v>0</v>
+      </c>
+      <c r="V17" s="29">
+        <v>0</v>
+      </c>
+      <c r="W17" s="29">
+        <v>0</v>
+      </c>
+      <c r="X17" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="Y17" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="28" t="s">
+      <c r="Z17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AB17" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="2"/>
+      <c r="AC17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
@@ -3773,7 +3790,7 @@
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
     </row>
-    <row r="18" spans="1:38" ht="12.2" customHeight="1">
+    <row r="18" spans="1:38" ht="17.25" customHeight="1">
       <c r="A18" s="13"/>
       <c r="B18" s="13" t="s">
         <v>0</v>
@@ -3810,55 +3827,57 @@
       <c r="N18" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O18" s="26">
-        <v>0</v>
-      </c>
-      <c r="P18" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="26">
-        <v>0</v>
-      </c>
-      <c r="R18" s="26">
-        <v>0</v>
-      </c>
-      <c r="S18" s="26">
-        <v>0</v>
-      </c>
-      <c r="T18" s="26">
-        <v>0</v>
-      </c>
-      <c r="U18" s="26">
-        <v>0</v>
-      </c>
-      <c r="V18" s="26">
-        <v>0</v>
-      </c>
-      <c r="W18" s="26">
-        <v>0</v>
-      </c>
-      <c r="X18" s="12" t="s">
+      <c r="O18" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P18" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="29">
+        <v>0</v>
+      </c>
+      <c r="R18" s="29">
+        <v>0</v>
+      </c>
+      <c r="S18" s="29">
+        <v>0</v>
+      </c>
+      <c r="T18" s="29">
+        <v>0</v>
+      </c>
+      <c r="U18" s="29">
+        <v>0</v>
+      </c>
+      <c r="V18" s="29">
+        <v>0</v>
+      </c>
+      <c r="W18" s="29">
+        <v>0</v>
+      </c>
+      <c r="X18" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="Y18" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="12" t="s">
+      <c r="Z18" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="AB18" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="2"/>
+      <c r="AC18" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="31" t="s">
+        <v>0</v>
+      </c>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
@@ -3867,12 +3886,12 @@
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
     </row>
-    <row r="19" spans="1:38" ht="12.2" customHeight="1">
+    <row r="19" spans="1:38" ht="17.25" customHeight="1">
       <c r="A19" s="13"/>
       <c r="B19" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="16" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="11"/>
@@ -3904,55 +3923,57 @@
       <c r="N19" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O19" s="26">
-        <v>0</v>
-      </c>
-      <c r="P19" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="26">
-        <v>0</v>
-      </c>
-      <c r="R19" s="26">
-        <v>0</v>
-      </c>
-      <c r="S19" s="26">
-        <v>0</v>
-      </c>
-      <c r="T19" s="26">
-        <v>0</v>
-      </c>
-      <c r="U19" s="26">
-        <v>0</v>
-      </c>
-      <c r="V19" s="26">
-        <v>0</v>
-      </c>
-      <c r="W19" s="26">
-        <v>0</v>
-      </c>
-      <c r="X19" s="12" t="s">
+      <c r="O19" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="29">
+        <v>0</v>
+      </c>
+      <c r="R19" s="29">
+        <v>0</v>
+      </c>
+      <c r="S19" s="29">
+        <v>0</v>
+      </c>
+      <c r="T19" s="29">
+        <v>0</v>
+      </c>
+      <c r="U19" s="29">
+        <v>0</v>
+      </c>
+      <c r="V19" s="29">
+        <v>0</v>
+      </c>
+      <c r="W19" s="29">
+        <v>0</v>
+      </c>
+      <c r="X19" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="Y19" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="12" t="s">
+      <c r="Z19" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="AB19" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="2"/>
+      <c r="AC19" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="31" t="s">
+        <v>0</v>
+      </c>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
@@ -4000,55 +4021,57 @@
       <c r="N20" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O20" s="27">
-        <v>214244.46</v>
-      </c>
-      <c r="P20" s="27">
-        <v>214244.46</v>
-      </c>
-      <c r="Q20" s="27">
-        <v>214244.46</v>
-      </c>
-      <c r="R20" s="27">
-        <v>214244.46</v>
-      </c>
-      <c r="S20" s="27">
-        <v>2620209.75</v>
-      </c>
-      <c r="T20" s="27">
-        <v>2620209.75</v>
-      </c>
-      <c r="U20" s="27">
-        <v>2620209.75</v>
-      </c>
-      <c r="V20" s="27">
-        <v>2620209.75</v>
-      </c>
-      <c r="W20" s="27">
-        <v>2620209.75</v>
-      </c>
-      <c r="X20" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="2"/>
+      <c r="O20" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="30">
+        <v>93766.54</v>
+      </c>
+      <c r="Q20" s="30">
+        <v>93766.54</v>
+      </c>
+      <c r="R20" s="30">
+        <v>93766.54</v>
+      </c>
+      <c r="S20" s="30">
+        <v>93766.54</v>
+      </c>
+      <c r="T20" s="30">
+        <v>6992236.0899999999</v>
+      </c>
+      <c r="U20" s="30">
+        <v>6992236.0899999999</v>
+      </c>
+      <c r="V20" s="30">
+        <v>6992236.0899999999</v>
+      </c>
+      <c r="W20" s="30">
+        <v>6992236.0899999999</v>
+      </c>
+      <c r="X20" s="30">
+        <v>6992236.0899999999</v>
+      </c>
+      <c r="Y20" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="29">
+        <v>0</v>
+      </c>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
@@ -4094,55 +4117,57 @@
       <c r="N21" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O21" s="27">
-        <v>206147.79</v>
-      </c>
-      <c r="P21" s="27">
-        <v>206147.79</v>
-      </c>
-      <c r="Q21" s="27">
-        <v>206147.79</v>
-      </c>
-      <c r="R21" s="27">
-        <v>206147.79</v>
-      </c>
-      <c r="S21" s="27">
-        <v>2542087.08</v>
-      </c>
-      <c r="T21" s="27">
-        <v>2542087.08</v>
-      </c>
-      <c r="U21" s="27">
-        <v>2542087.08</v>
-      </c>
-      <c r="V21" s="27">
-        <v>2542087.08</v>
-      </c>
-      <c r="W21" s="27">
-        <v>2542087.08</v>
-      </c>
-      <c r="X21" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="2"/>
+      <c r="O21" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" s="30">
+        <v>89466.71</v>
+      </c>
+      <c r="Q21" s="30">
+        <v>89466.71</v>
+      </c>
+      <c r="R21" s="30">
+        <v>89466.71</v>
+      </c>
+      <c r="S21" s="30">
+        <v>89466.71</v>
+      </c>
+      <c r="T21" s="30">
+        <v>6791289.4199999999</v>
+      </c>
+      <c r="U21" s="30">
+        <v>6791289.4199999999</v>
+      </c>
+      <c r="V21" s="30">
+        <v>6791289.4199999999</v>
+      </c>
+      <c r="W21" s="30">
+        <v>6791289.4199999999</v>
+      </c>
+      <c r="X21" s="30">
+        <v>6791289.4199999999</v>
+      </c>
+      <c r="Y21" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="29">
+        <v>0</v>
+      </c>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
@@ -4151,7 +4176,7 @@
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
     </row>
-    <row r="22" spans="1:38" ht="12.2" customHeight="1">
+    <row r="22" spans="1:38" ht="17.25" customHeight="1">
       <c r="A22" s="13"/>
       <c r="B22" s="13" t="s">
         <v>0</v>
@@ -4188,55 +4213,57 @@
       <c r="N22" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O22" s="26">
-        <v>0</v>
-      </c>
-      <c r="P22" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="26">
-        <v>0</v>
-      </c>
-      <c r="R22" s="26">
-        <v>0</v>
-      </c>
-      <c r="S22" s="26">
-        <v>0</v>
-      </c>
-      <c r="T22" s="26">
-        <v>0</v>
-      </c>
-      <c r="U22" s="26">
-        <v>0</v>
-      </c>
-      <c r="V22" s="26">
-        <v>0</v>
-      </c>
-      <c r="W22" s="26">
-        <v>0</v>
-      </c>
-      <c r="X22" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="22" t="s">
+      <c r="O22" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P22" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="29">
+        <v>0</v>
+      </c>
+      <c r="R22" s="29">
+        <v>0</v>
+      </c>
+      <c r="S22" s="29">
+        <v>0</v>
+      </c>
+      <c r="T22" s="29">
+        <v>0</v>
+      </c>
+      <c r="U22" s="29">
+        <v>0</v>
+      </c>
+      <c r="V22" s="29">
+        <v>0</v>
+      </c>
+      <c r="W22" s="29">
+        <v>0</v>
+      </c>
+      <c r="X22" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="AB22" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="2"/>
+      <c r="AC22" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="32" t="s">
+        <v>0</v>
+      </c>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
@@ -4282,55 +4309,57 @@
       <c r="N23" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O23" s="26">
-        <v>0</v>
-      </c>
-      <c r="P23" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="26">
-        <v>0</v>
-      </c>
-      <c r="R23" s="26">
-        <v>0</v>
-      </c>
-      <c r="S23" s="26">
-        <v>0</v>
-      </c>
-      <c r="T23" s="26">
-        <v>0</v>
-      </c>
-      <c r="U23" s="26">
-        <v>0</v>
-      </c>
-      <c r="V23" s="26">
-        <v>0</v>
-      </c>
-      <c r="W23" s="26">
-        <v>0</v>
-      </c>
-      <c r="X23" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="2"/>
+      <c r="O23" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P23" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="29">
+        <v>0</v>
+      </c>
+      <c r="R23" s="29">
+        <v>0</v>
+      </c>
+      <c r="S23" s="29">
+        <v>0</v>
+      </c>
+      <c r="T23" s="29">
+        <v>0</v>
+      </c>
+      <c r="U23" s="29">
+        <v>0</v>
+      </c>
+      <c r="V23" s="29">
+        <v>0</v>
+      </c>
+      <c r="W23" s="29">
+        <v>0</v>
+      </c>
+      <c r="X23" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="29">
+        <v>0</v>
+      </c>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
@@ -4339,7 +4368,7 @@
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
     </row>
-    <row r="24" spans="1:38" ht="17.25" customHeight="1">
+    <row r="24" spans="1:38" ht="12.2" customHeight="1">
       <c r="A24" s="13"/>
       <c r="B24" s="13" t="s">
         <v>0</v>
@@ -4376,55 +4405,57 @@
       <c r="N24" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O24" s="26">
-        <v>0</v>
-      </c>
-      <c r="P24" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="26">
-        <v>0</v>
-      </c>
-      <c r="R24" s="26">
-        <v>0</v>
-      </c>
-      <c r="S24" s="26">
-        <v>0</v>
-      </c>
-      <c r="T24" s="26">
-        <v>0</v>
-      </c>
-      <c r="U24" s="26">
-        <v>0</v>
-      </c>
-      <c r="V24" s="26">
-        <v>0</v>
-      </c>
-      <c r="W24" s="26">
-        <v>0</v>
-      </c>
-      <c r="X24" s="12" t="s">
+      <c r="O24" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P24" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="29">
+        <v>0</v>
+      </c>
+      <c r="R24" s="29">
+        <v>0</v>
+      </c>
+      <c r="S24" s="29">
+        <v>0</v>
+      </c>
+      <c r="T24" s="29">
+        <v>0</v>
+      </c>
+      <c r="U24" s="29">
+        <v>0</v>
+      </c>
+      <c r="V24" s="29">
+        <v>0</v>
+      </c>
+      <c r="W24" s="29">
+        <v>0</v>
+      </c>
+      <c r="X24" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="Y24" s="12" t="s">
-        <v>0</v>
-      </c>
       <c r="Z24" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AA24" s="28" t="s">
+      <c r="AA24" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AB24" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="2"/>
+      <c r="AC24" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
@@ -4433,7 +4464,7 @@
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
     </row>
-    <row r="25" spans="1:38" ht="17.25" customHeight="1">
+    <row r="25" spans="1:38" ht="12.2" customHeight="1">
       <c r="A25" s="13"/>
       <c r="B25" s="13" t="s">
         <v>0</v>
@@ -4470,55 +4501,57 @@
       <c r="N25" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O25" s="26">
-        <v>0</v>
-      </c>
-      <c r="P25" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="26">
-        <v>0</v>
-      </c>
-      <c r="R25" s="26">
-        <v>0</v>
-      </c>
-      <c r="S25" s="26">
-        <v>0</v>
-      </c>
-      <c r="T25" s="26">
-        <v>0</v>
-      </c>
-      <c r="U25" s="26">
-        <v>0</v>
-      </c>
-      <c r="V25" s="26">
-        <v>0</v>
-      </c>
-      <c r="W25" s="26">
-        <v>0</v>
-      </c>
-      <c r="X25" s="28" t="s">
+      <c r="O25" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P25" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="29">
+        <v>0</v>
+      </c>
+      <c r="R25" s="29">
+        <v>0</v>
+      </c>
+      <c r="S25" s="29">
+        <v>0</v>
+      </c>
+      <c r="T25" s="29">
+        <v>0</v>
+      </c>
+      <c r="U25" s="29">
+        <v>0</v>
+      </c>
+      <c r="V25" s="29">
+        <v>0</v>
+      </c>
+      <c r="W25" s="29">
+        <v>0</v>
+      </c>
+      <c r="X25" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="Y25" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="28" t="s">
+      <c r="Z25" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AB25" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="2"/>
+      <c r="AC25" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
@@ -4527,7 +4560,7 @@
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
     </row>
-    <row r="26" spans="1:38" ht="12.2" customHeight="1">
+    <row r="26" spans="1:38" ht="17.25" customHeight="1">
       <c r="A26" s="13"/>
       <c r="B26" s="13" t="s">
         <v>0</v>
@@ -4564,24 +4597,24 @@
       <c r="N26" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O26" s="27">
-        <v>206147.79</v>
-      </c>
-      <c r="P26" s="27">
-        <v>206147.79</v>
-      </c>
-      <c r="Q26" s="27">
-        <v>206147.79</v>
-      </c>
-      <c r="R26" s="27">
-        <v>206147.79</v>
-      </c>
-      <c r="S26" s="12" t="s">
+      <c r="O26" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P26" s="30">
+        <v>89466.71</v>
+      </c>
+      <c r="Q26" s="30">
+        <v>89466.71</v>
+      </c>
+      <c r="R26" s="30">
+        <v>89466.71</v>
+      </c>
+      <c r="S26" s="30">
+        <v>89466.71</v>
+      </c>
+      <c r="T26" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="T26" s="12" t="s">
-        <v>0</v>
-      </c>
       <c r="U26" s="12" t="s">
         <v>0</v>
       </c>
@@ -4591,28 +4624,30 @@
       <c r="W26" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="X26" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="12" t="s">
+      <c r="X26" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="AB26" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="2"/>
+      <c r="AC26" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="31" t="s">
+        <v>0</v>
+      </c>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
@@ -4658,55 +4693,57 @@
       <c r="N27" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O27" s="27">
-        <v>206147.79</v>
-      </c>
-      <c r="P27" s="27">
-        <v>206147.79</v>
-      </c>
-      <c r="Q27" s="27">
-        <v>206147.79</v>
-      </c>
-      <c r="R27" s="27">
-        <v>206147.79</v>
-      </c>
-      <c r="S27" s="26">
-        <v>0</v>
-      </c>
-      <c r="T27" s="26">
-        <v>0</v>
-      </c>
-      <c r="U27" s="26">
-        <v>0</v>
-      </c>
-      <c r="V27" s="26">
-        <v>0</v>
-      </c>
-      <c r="W27" s="26">
-        <v>0</v>
-      </c>
-      <c r="X27" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="2"/>
+      <c r="O27" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P27" s="30">
+        <v>89466.71</v>
+      </c>
+      <c r="Q27" s="30">
+        <v>89466.71</v>
+      </c>
+      <c r="R27" s="30">
+        <v>89466.71</v>
+      </c>
+      <c r="S27" s="30">
+        <v>89466.71</v>
+      </c>
+      <c r="T27" s="29">
+        <v>0</v>
+      </c>
+      <c r="U27" s="29">
+        <v>0</v>
+      </c>
+      <c r="V27" s="29">
+        <v>0</v>
+      </c>
+      <c r="W27" s="29">
+        <v>0</v>
+      </c>
+      <c r="X27" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="29">
+        <v>0</v>
+      </c>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
@@ -4752,55 +4789,57 @@
       <c r="N28" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O28" s="27">
-        <v>8096.67</v>
-      </c>
-      <c r="P28" s="27">
-        <v>8096.67</v>
-      </c>
-      <c r="Q28" s="27">
-        <v>8096.67</v>
-      </c>
-      <c r="R28" s="27">
-        <v>8096.67</v>
-      </c>
-      <c r="S28" s="27">
-        <v>78122.67</v>
-      </c>
-      <c r="T28" s="27">
-        <v>78122.67</v>
-      </c>
-      <c r="U28" s="27">
-        <v>78122.67</v>
-      </c>
-      <c r="V28" s="27">
-        <v>78122.67</v>
-      </c>
-      <c r="W28" s="27">
-        <v>78122.67</v>
-      </c>
-      <c r="X28" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="2"/>
+      <c r="O28" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P28" s="30">
+        <v>4299.83</v>
+      </c>
+      <c r="Q28" s="30">
+        <v>4299.83</v>
+      </c>
+      <c r="R28" s="30">
+        <v>4299.83</v>
+      </c>
+      <c r="S28" s="30">
+        <v>4299.83</v>
+      </c>
+      <c r="T28" s="30">
+        <v>200946.67</v>
+      </c>
+      <c r="U28" s="30">
+        <v>200946.67</v>
+      </c>
+      <c r="V28" s="30">
+        <v>200946.67</v>
+      </c>
+      <c r="W28" s="30">
+        <v>200946.67</v>
+      </c>
+      <c r="X28" s="30">
+        <v>200946.67</v>
+      </c>
+      <c r="Y28" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="29">
+        <v>0</v>
+      </c>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
@@ -4809,7 +4848,7 @@
       <c r="AK28" s="2"/>
       <c r="AL28" s="2"/>
     </row>
-    <row r="29" spans="1:38" ht="17.25" customHeight="1">
+    <row r="29" spans="1:38" ht="12.2" customHeight="1">
       <c r="A29" s="13"/>
       <c r="B29" s="13" t="s">
         <v>0</v>
@@ -4846,55 +4885,57 @@
       <c r="N29" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O29" s="26">
-        <v>0</v>
-      </c>
-      <c r="P29" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="26">
-        <v>0</v>
-      </c>
-      <c r="R29" s="26">
-        <v>0</v>
-      </c>
-      <c r="S29" s="26">
-        <v>0</v>
-      </c>
-      <c r="T29" s="26">
-        <v>0</v>
-      </c>
-      <c r="U29" s="26">
-        <v>0</v>
-      </c>
-      <c r="V29" s="26">
-        <v>0</v>
-      </c>
-      <c r="W29" s="26">
-        <v>0</v>
-      </c>
-      <c r="X29" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="28" t="s">
+      <c r="O29" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P29" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="29">
+        <v>0</v>
+      </c>
+      <c r="R29" s="29">
+        <v>0</v>
+      </c>
+      <c r="S29" s="29">
+        <v>0</v>
+      </c>
+      <c r="T29" s="29">
+        <v>0</v>
+      </c>
+      <c r="U29" s="29">
+        <v>0</v>
+      </c>
+      <c r="V29" s="29">
+        <v>0</v>
+      </c>
+      <c r="W29" s="29">
+        <v>0</v>
+      </c>
+      <c r="X29" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AB29" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="2"/>
+      <c r="AC29" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
@@ -4940,55 +4981,57 @@
       <c r="N30" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O30" s="26">
-        <v>0</v>
-      </c>
-      <c r="P30" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="26">
-        <v>0</v>
-      </c>
-      <c r="R30" s="26">
-        <v>0</v>
-      </c>
-      <c r="S30" s="26">
-        <v>0</v>
-      </c>
-      <c r="T30" s="26">
-        <v>0</v>
-      </c>
-      <c r="U30" s="26">
-        <v>0</v>
-      </c>
-      <c r="V30" s="26">
-        <v>0</v>
-      </c>
-      <c r="W30" s="26">
-        <v>0</v>
-      </c>
-      <c r="X30" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="2"/>
+      <c r="O30" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P30" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="29">
+        <v>0</v>
+      </c>
+      <c r="R30" s="29">
+        <v>0</v>
+      </c>
+      <c r="S30" s="29">
+        <v>0</v>
+      </c>
+      <c r="T30" s="29">
+        <v>0</v>
+      </c>
+      <c r="U30" s="29">
+        <v>0</v>
+      </c>
+      <c r="V30" s="29">
+        <v>0</v>
+      </c>
+      <c r="W30" s="29">
+        <v>0</v>
+      </c>
+      <c r="X30" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="29">
+        <v>0</v>
+      </c>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
@@ -4997,7 +5040,7 @@
       <c r="AK30" s="2"/>
       <c r="AL30" s="2"/>
     </row>
-    <row r="31" spans="1:38" ht="12.2" customHeight="1">
+    <row r="31" spans="1:38" ht="17.25" customHeight="1">
       <c r="A31" s="13"/>
       <c r="B31" s="13" t="s">
         <v>0</v>
@@ -5034,55 +5077,57 @@
       <c r="N31" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O31" s="26">
-        <v>0</v>
-      </c>
-      <c r="P31" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="26">
-        <v>0</v>
-      </c>
-      <c r="R31" s="26">
-        <v>0</v>
-      </c>
-      <c r="S31" s="26">
-        <v>0</v>
-      </c>
-      <c r="T31" s="26">
-        <v>0</v>
-      </c>
-      <c r="U31" s="26">
-        <v>0</v>
-      </c>
-      <c r="V31" s="26">
-        <v>0</v>
-      </c>
-      <c r="W31" s="26">
-        <v>0</v>
-      </c>
-      <c r="X31" s="12" t="s">
+      <c r="O31" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P31" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="29">
+        <v>0</v>
+      </c>
+      <c r="R31" s="29">
+        <v>0</v>
+      </c>
+      <c r="S31" s="29">
+        <v>0</v>
+      </c>
+      <c r="T31" s="29">
+        <v>0</v>
+      </c>
+      <c r="U31" s="29">
+        <v>0</v>
+      </c>
+      <c r="V31" s="29">
+        <v>0</v>
+      </c>
+      <c r="W31" s="29">
+        <v>0</v>
+      </c>
+      <c r="X31" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="Y31" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="12" t="s">
+      <c r="Z31" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="AB31" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="2"/>
+      <c r="AC31" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="31" t="s">
+        <v>0</v>
+      </c>
       <c r="AF31" s="2"/>
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
@@ -5128,55 +5173,57 @@
       <c r="N32" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O32" s="26">
-        <v>0</v>
-      </c>
-      <c r="P32" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="26">
-        <v>0</v>
-      </c>
-      <c r="R32" s="26">
-        <v>0</v>
-      </c>
-      <c r="S32" s="26">
-        <v>0</v>
-      </c>
-      <c r="T32" s="26">
-        <v>0</v>
-      </c>
-      <c r="U32" s="26">
-        <v>0</v>
-      </c>
-      <c r="V32" s="26">
-        <v>0</v>
-      </c>
-      <c r="W32" s="26">
-        <v>0</v>
-      </c>
-      <c r="X32" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="2"/>
+      <c r="O32" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P32" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="29">
+        <v>0</v>
+      </c>
+      <c r="R32" s="29">
+        <v>0</v>
+      </c>
+      <c r="S32" s="29">
+        <v>0</v>
+      </c>
+      <c r="T32" s="29">
+        <v>0</v>
+      </c>
+      <c r="U32" s="29">
+        <v>0</v>
+      </c>
+      <c r="V32" s="29">
+        <v>0</v>
+      </c>
+      <c r="W32" s="29">
+        <v>0</v>
+      </c>
+      <c r="X32" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="29">
+        <v>0</v>
+      </c>
       <c r="AF32" s="2"/>
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
@@ -5222,55 +5269,57 @@
       <c r="N33" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O33" s="27">
-        <v>8096.67</v>
-      </c>
-      <c r="P33" s="27">
-        <v>8096.67</v>
-      </c>
-      <c r="Q33" s="27">
-        <v>8096.67</v>
-      </c>
-      <c r="R33" s="27">
-        <v>8096.67</v>
-      </c>
-      <c r="S33" s="27">
-        <v>78122.67</v>
-      </c>
-      <c r="T33" s="27">
-        <v>78122.67</v>
-      </c>
-      <c r="U33" s="27">
-        <v>78122.67</v>
-      </c>
-      <c r="V33" s="27">
-        <v>78122.67</v>
-      </c>
-      <c r="W33" s="27">
-        <v>78122.67</v>
-      </c>
-      <c r="X33" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="2"/>
+      <c r="O33" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P33" s="30">
+        <v>4299.83</v>
+      </c>
+      <c r="Q33" s="30">
+        <v>4299.83</v>
+      </c>
+      <c r="R33" s="30">
+        <v>4299.83</v>
+      </c>
+      <c r="S33" s="30">
+        <v>4299.83</v>
+      </c>
+      <c r="T33" s="30">
+        <v>200946.67</v>
+      </c>
+      <c r="U33" s="30">
+        <v>200946.67</v>
+      </c>
+      <c r="V33" s="30">
+        <v>200946.67</v>
+      </c>
+      <c r="W33" s="30">
+        <v>200946.67</v>
+      </c>
+      <c r="X33" s="30">
+        <v>200946.67</v>
+      </c>
+      <c r="Y33" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="29">
+        <v>0</v>
+      </c>
       <c r="AF33" s="2"/>
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
@@ -5318,55 +5367,57 @@
       <c r="N34" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O34" s="27">
-        <v>6882.17</v>
-      </c>
-      <c r="P34" s="27">
-        <v>6882.17</v>
-      </c>
-      <c r="Q34" s="27">
-        <v>6882.17</v>
-      </c>
-      <c r="R34" s="27">
-        <v>6882.17</v>
-      </c>
-      <c r="S34" s="27">
-        <v>13478.67</v>
-      </c>
-      <c r="T34" s="27">
-        <v>13478.67</v>
-      </c>
-      <c r="U34" s="27">
-        <v>13478.67</v>
-      </c>
-      <c r="V34" s="27">
-        <v>13478.67</v>
-      </c>
-      <c r="W34" s="27">
-        <v>13478.67</v>
-      </c>
-      <c r="X34" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="2"/>
+      <c r="O34" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P34" s="30">
+        <v>3654.86</v>
+      </c>
+      <c r="Q34" s="30">
+        <v>3654.86</v>
+      </c>
+      <c r="R34" s="30">
+        <v>3654.86</v>
+      </c>
+      <c r="S34" s="30">
+        <v>3654.86</v>
+      </c>
+      <c r="T34" s="30">
+        <v>11322</v>
+      </c>
+      <c r="U34" s="30">
+        <v>11322</v>
+      </c>
+      <c r="V34" s="30">
+        <v>11322</v>
+      </c>
+      <c r="W34" s="30">
+        <v>11322</v>
+      </c>
+      <c r="X34" s="30">
+        <v>11322</v>
+      </c>
+      <c r="Y34" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="29">
+        <v>0</v>
+      </c>
       <c r="AF34" s="2"/>
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
@@ -5375,7 +5426,7 @@
       <c r="AK34" s="2"/>
       <c r="AL34" s="2"/>
     </row>
-    <row r="35" spans="1:38" ht="12.2" customHeight="1">
+    <row r="35" spans="1:38" ht="17.25" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="13" t="s">
         <v>0</v>
@@ -5412,55 +5463,57 @@
       <c r="N35" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O35" s="26">
-        <v>0</v>
-      </c>
-      <c r="P35" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="26">
-        <v>0</v>
-      </c>
-      <c r="R35" s="26">
-        <v>0</v>
-      </c>
-      <c r="S35" s="26">
-        <v>0</v>
-      </c>
-      <c r="T35" s="26">
-        <v>0</v>
-      </c>
-      <c r="U35" s="26">
-        <v>0</v>
-      </c>
-      <c r="V35" s="26">
-        <v>0</v>
-      </c>
-      <c r="W35" s="26">
-        <v>0</v>
-      </c>
-      <c r="X35" s="12" t="s">
+      <c r="O35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P35" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="29">
+        <v>0</v>
+      </c>
+      <c r="R35" s="29">
+        <v>0</v>
+      </c>
+      <c r="S35" s="29">
+        <v>0</v>
+      </c>
+      <c r="T35" s="29">
+        <v>0</v>
+      </c>
+      <c r="U35" s="29">
+        <v>0</v>
+      </c>
+      <c r="V35" s="29">
+        <v>0</v>
+      </c>
+      <c r="W35" s="29">
+        <v>0</v>
+      </c>
+      <c r="X35" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="Y35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="12" t="s">
+      <c r="Z35" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AB35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="2"/>
+      <c r="AC35" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="31" t="s">
+        <v>0</v>
+      </c>
       <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
@@ -5506,55 +5559,57 @@
       <c r="N36" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O36" s="27">
-        <v>6882.17</v>
-      </c>
-      <c r="P36" s="27">
-        <v>6882.17</v>
-      </c>
-      <c r="Q36" s="27">
-        <v>6882.17</v>
-      </c>
-      <c r="R36" s="27">
-        <v>6882.17</v>
-      </c>
-      <c r="S36" s="27">
-        <v>83504.67</v>
-      </c>
-      <c r="T36" s="27">
-        <v>83504.67</v>
-      </c>
-      <c r="U36" s="27">
-        <v>83504.67</v>
-      </c>
-      <c r="V36" s="27">
-        <v>83504.67</v>
-      </c>
-      <c r="W36" s="27">
-        <v>83504.67</v>
-      </c>
-      <c r="X36" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="2"/>
+      <c r="O36" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P36" s="30">
+        <v>3654.86</v>
+      </c>
+      <c r="Q36" s="30">
+        <v>3654.86</v>
+      </c>
+      <c r="R36" s="30">
+        <v>3654.86</v>
+      </c>
+      <c r="S36" s="30">
+        <v>3654.86</v>
+      </c>
+      <c r="T36" s="30">
+        <v>207968.84</v>
+      </c>
+      <c r="U36" s="30">
+        <v>207968.84</v>
+      </c>
+      <c r="V36" s="30">
+        <v>207968.84</v>
+      </c>
+      <c r="W36" s="30">
+        <v>207968.84</v>
+      </c>
+      <c r="X36" s="30">
+        <v>207968.84</v>
+      </c>
+      <c r="Y36" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="29">
+        <v>0</v>
+      </c>
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
@@ -5563,7 +5618,7 @@
       <c r="AK36" s="2"/>
       <c r="AL36" s="2"/>
     </row>
-    <row r="37" spans="1:38" ht="17.25" customHeight="1">
+    <row r="37" spans="1:38" ht="12.2" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="13" t="s">
         <v>0</v>
@@ -5600,55 +5655,57 @@
       <c r="N37" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O37" s="26">
-        <v>0</v>
-      </c>
-      <c r="P37" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="26">
-        <v>0</v>
-      </c>
-      <c r="R37" s="26">
-        <v>0</v>
-      </c>
-      <c r="S37" s="28" t="s">
+      <c r="O37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P37" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="29">
+        <v>0</v>
+      </c>
+      <c r="R37" s="29">
+        <v>0</v>
+      </c>
+      <c r="S37" s="29">
+        <v>0</v>
+      </c>
+      <c r="T37" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="T37" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="U37" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="V37" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="W37" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="X37" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="28" t="s">
+      <c r="U37" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="V37" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="W37" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="X37" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="AB37" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="2"/>
+      <c r="AC37" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
@@ -5694,24 +5751,24 @@
       <c r="N38" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O38" s="26">
-        <v>0</v>
-      </c>
-      <c r="P38" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="26">
-        <v>0</v>
-      </c>
-      <c r="R38" s="26">
-        <v>0</v>
-      </c>
-      <c r="S38" s="12" t="s">
+      <c r="O38" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P38" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="29">
+        <v>0</v>
+      </c>
+      <c r="R38" s="29">
+        <v>0</v>
+      </c>
+      <c r="S38" s="29">
+        <v>0</v>
+      </c>
+      <c r="T38" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="T38" s="12" t="s">
-        <v>0</v>
-      </c>
       <c r="U38" s="12" t="s">
         <v>0</v>
       </c>
@@ -5722,27 +5779,29 @@
         <v>0</v>
       </c>
       <c r="X38" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="Y38" s="12" t="s">
-        <v>0</v>
-      </c>
       <c r="Z38" s="12" t="s">
         <v>0</v>
       </c>
       <c r="AA38" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="AB38" s="12" t="s">
-        <v>0</v>
-      </c>
       <c r="AC38" s="12" t="s">
         <v>0</v>
       </c>
       <c r="AD38" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AE38" s="2"/>
+      <c r="AE38" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
@@ -5788,55 +5847,57 @@
       <c r="N39" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O39" s="27">
-        <v>6882.17</v>
-      </c>
-      <c r="P39" s="27">
-        <v>6882.17</v>
-      </c>
-      <c r="Q39" s="27">
-        <v>6882.17</v>
-      </c>
-      <c r="R39" s="27">
-        <v>6882.17</v>
-      </c>
-      <c r="S39" s="27">
-        <v>83504.67</v>
-      </c>
-      <c r="T39" s="27">
-        <v>83504.67</v>
-      </c>
-      <c r="U39" s="27">
-        <v>83504.67</v>
-      </c>
-      <c r="V39" s="27">
-        <v>83504.67</v>
-      </c>
-      <c r="W39" s="27">
-        <v>83504.67</v>
-      </c>
-      <c r="X39" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="2"/>
+      <c r="O39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P39" s="30">
+        <v>3654.86</v>
+      </c>
+      <c r="Q39" s="30">
+        <v>3654.86</v>
+      </c>
+      <c r="R39" s="30">
+        <v>3654.86</v>
+      </c>
+      <c r="S39" s="30">
+        <v>3654.86</v>
+      </c>
+      <c r="T39" s="30">
+        <v>207968.84</v>
+      </c>
+      <c r="U39" s="30">
+        <v>207968.84</v>
+      </c>
+      <c r="V39" s="30">
+        <v>207968.84</v>
+      </c>
+      <c r="W39" s="30">
+        <v>207968.84</v>
+      </c>
+      <c r="X39" s="30">
+        <v>207968.84</v>
+      </c>
+      <c r="Y39" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="29">
+        <v>0</v>
+      </c>
       <c r="AF39" s="2"/>
       <c r="AG39" s="2"/>
       <c r="AH39" s="2"/>
@@ -5882,55 +5943,57 @@
       <c r="N40" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O40" s="26">
-        <v>0</v>
-      </c>
-      <c r="P40" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="26">
-        <v>0</v>
-      </c>
-      <c r="R40" s="26">
-        <v>0</v>
-      </c>
-      <c r="S40" s="26">
-        <v>0</v>
-      </c>
-      <c r="T40" s="26">
-        <v>0</v>
-      </c>
-      <c r="U40" s="26">
-        <v>0</v>
-      </c>
-      <c r="V40" s="26">
-        <v>0</v>
-      </c>
-      <c r="W40" s="26">
-        <v>0</v>
-      </c>
-      <c r="X40" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="2"/>
+      <c r="O40" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P40" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="29">
+        <v>0</v>
+      </c>
+      <c r="R40" s="29">
+        <v>0</v>
+      </c>
+      <c r="S40" s="29">
+        <v>0</v>
+      </c>
+      <c r="T40" s="29">
+        <v>0</v>
+      </c>
+      <c r="U40" s="29">
+        <v>0</v>
+      </c>
+      <c r="V40" s="29">
+        <v>0</v>
+      </c>
+      <c r="W40" s="29">
+        <v>0</v>
+      </c>
+      <c r="X40" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="29">
+        <v>0</v>
+      </c>
       <c r="AF40" s="2"/>
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
@@ -5976,55 +6039,57 @@
       <c r="N41" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O41" s="27">
-        <v>8096.67</v>
-      </c>
-      <c r="P41" s="27">
-        <v>8096.67</v>
-      </c>
-      <c r="Q41" s="27">
-        <v>8096.67</v>
-      </c>
-      <c r="R41" s="27">
-        <v>8096.67</v>
-      </c>
-      <c r="S41" s="27">
-        <v>8096.67</v>
-      </c>
-      <c r="T41" s="27">
-        <v>8096.67</v>
-      </c>
-      <c r="U41" s="27">
-        <v>8096.67</v>
-      </c>
-      <c r="V41" s="27">
-        <v>8096.67</v>
-      </c>
-      <c r="W41" s="27">
-        <v>8096.67</v>
-      </c>
-      <c r="X41" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="2"/>
+      <c r="O41" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P41" s="30">
+        <v>4299.83</v>
+      </c>
+      <c r="Q41" s="30">
+        <v>4299.83</v>
+      </c>
+      <c r="R41" s="30">
+        <v>4299.83</v>
+      </c>
+      <c r="S41" s="30">
+        <v>4299.83</v>
+      </c>
+      <c r="T41" s="30">
+        <v>4299.83</v>
+      </c>
+      <c r="U41" s="30">
+        <v>4299.83</v>
+      </c>
+      <c r="V41" s="30">
+        <v>4299.83</v>
+      </c>
+      <c r="W41" s="30">
+        <v>4299.83</v>
+      </c>
+      <c r="X41" s="30">
+        <v>4299.83</v>
+      </c>
+      <c r="Y41" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="29">
+        <v>0</v>
+      </c>
       <c r="AF41" s="2"/>
       <c r="AG41" s="2"/>
       <c r="AH41" s="2"/>
@@ -6033,7 +6098,7 @@
       <c r="AK41" s="2"/>
       <c r="AL41" s="2"/>
     </row>
-    <row r="42" spans="1:38" ht="17.25" customHeight="1">
+    <row r="42" spans="1:38" ht="12.2" customHeight="1">
       <c r="A42" s="13"/>
       <c r="B42" s="13" t="s">
         <v>0</v>
@@ -6070,55 +6135,57 @@
       <c r="N42" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O42" s="26">
-        <v>0</v>
-      </c>
-      <c r="P42" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="26">
-        <v>0</v>
-      </c>
-      <c r="R42" s="26">
-        <v>0</v>
-      </c>
-      <c r="S42" s="28" t="s">
+      <c r="O42" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P42" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="29">
+        <v>0</v>
+      </c>
+      <c r="R42" s="29">
+        <v>0</v>
+      </c>
+      <c r="S42" s="29">
+        <v>0</v>
+      </c>
+      <c r="T42" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="T42" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="U42" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="V42" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="W42" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="X42" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="12" t="s">
+      <c r="U42" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="V42" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="W42" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="X42" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="AB42" s="12" t="s">
-        <v>0</v>
-      </c>
       <c r="AC42" s="12" t="s">
         <v>0</v>
       </c>
       <c r="AD42" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AE42" s="2"/>
+      <c r="AE42" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="AF42" s="2"/>
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
@@ -6127,7 +6194,7 @@
       <c r="AK42" s="2"/>
       <c r="AL42" s="2"/>
     </row>
-    <row r="43" spans="1:38" ht="12.2" customHeight="1">
+    <row r="43" spans="1:38" ht="17.25" customHeight="1">
       <c r="A43" s="13"/>
       <c r="B43" s="13" t="s">
         <v>0</v>
@@ -6164,55 +6231,57 @@
       <c r="N43" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O43" s="27">
-        <v>8096.67</v>
-      </c>
-      <c r="P43" s="27">
-        <v>8096.67</v>
-      </c>
-      <c r="Q43" s="27">
-        <v>8096.67</v>
-      </c>
-      <c r="R43" s="27">
-        <v>8096.67</v>
-      </c>
-      <c r="S43" s="12" t="s">
+      <c r="O43" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P43" s="30">
+        <v>4299.83</v>
+      </c>
+      <c r="Q43" s="30">
+        <v>4299.83</v>
+      </c>
+      <c r="R43" s="30">
+        <v>4299.83</v>
+      </c>
+      <c r="S43" s="30">
+        <v>4299.83</v>
+      </c>
+      <c r="T43" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="T43" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="U43" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="V43" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="W43" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="X43" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="12" t="s">
+      <c r="U43" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="V43" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="W43" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="X43" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="AB43" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="2"/>
+      <c r="AC43" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="31" t="s">
+        <v>0</v>
+      </c>
       <c r="AF43" s="2"/>
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
@@ -6258,24 +6327,24 @@
       <c r="N44" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O44" s="23" t="s">
+      <c r="O44" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P44" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="P44" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="R44" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="S44" s="12" t="s">
+      <c r="Q44" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="R44" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="S44" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="T44" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="T44" s="12" t="s">
-        <v>0</v>
-      </c>
       <c r="U44" s="12" t="s">
         <v>0</v>
       </c>
@@ -6285,28 +6354,30 @@
       <c r="W44" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="X44" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="2"/>
+      <c r="X44" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="29">
+        <v>0</v>
+      </c>
       <c r="AF44" s="2"/>
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
@@ -6315,7 +6386,7 @@
       <c r="AK44" s="2"/>
       <c r="AL44" s="2"/>
     </row>
-    <row r="45" spans="1:38" ht="17.25" customHeight="1">
+    <row r="45" spans="1:38" ht="12.2" customHeight="1">
       <c r="A45" s="13"/>
       <c r="B45" s="13" t="s">
         <v>0</v>
@@ -6352,55 +6423,57 @@
       <c r="N45" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O45" s="26">
-        <v>0</v>
-      </c>
-      <c r="P45" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="26">
-        <v>0</v>
-      </c>
-      <c r="R45" s="26">
-        <v>0</v>
-      </c>
-      <c r="S45" s="26">
-        <v>0</v>
-      </c>
-      <c r="T45" s="26">
-        <v>0</v>
-      </c>
-      <c r="U45" s="26">
-        <v>0</v>
-      </c>
-      <c r="V45" s="26">
-        <v>0</v>
-      </c>
-      <c r="W45" s="26">
-        <v>0</v>
-      </c>
-      <c r="X45" s="28" t="s">
+      <c r="O45" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P45" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="29">
+        <v>0</v>
+      </c>
+      <c r="R45" s="29">
+        <v>0</v>
+      </c>
+      <c r="S45" s="29">
+        <v>0</v>
+      </c>
+      <c r="T45" s="29">
+        <v>0</v>
+      </c>
+      <c r="U45" s="29">
+        <v>0</v>
+      </c>
+      <c r="V45" s="29">
+        <v>0</v>
+      </c>
+      <c r="W45" s="29">
+        <v>0</v>
+      </c>
+      <c r="X45" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="Y45" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="28" t="s">
+      <c r="Z45" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="AB45" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="2"/>
+      <c r="AC45" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
@@ -6446,55 +6519,57 @@
       <c r="N46" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O46" s="26">
-        <v>0</v>
-      </c>
-      <c r="P46" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="26">
-        <v>0</v>
-      </c>
-      <c r="R46" s="26">
-        <v>0</v>
-      </c>
-      <c r="S46" s="26">
-        <v>0</v>
-      </c>
-      <c r="T46" s="26">
-        <v>0</v>
-      </c>
-      <c r="U46" s="26">
-        <v>0</v>
-      </c>
-      <c r="V46" s="26">
-        <v>0</v>
-      </c>
-      <c r="W46" s="26">
-        <v>0</v>
-      </c>
-      <c r="X46" s="12" t="s">
+      <c r="O46" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P46" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="29">
+        <v>0</v>
+      </c>
+      <c r="R46" s="29">
+        <v>0</v>
+      </c>
+      <c r="S46" s="29">
+        <v>0</v>
+      </c>
+      <c r="T46" s="29">
+        <v>0</v>
+      </c>
+      <c r="U46" s="29">
+        <v>0</v>
+      </c>
+      <c r="V46" s="29">
+        <v>0</v>
+      </c>
+      <c r="W46" s="29">
+        <v>0</v>
+      </c>
+      <c r="X46" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="Y46" s="12" t="s">
-        <v>0</v>
-      </c>
       <c r="Z46" s="12" t="s">
         <v>0</v>
       </c>
       <c r="AA46" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="AB46" s="12" t="s">
-        <v>0</v>
-      </c>
       <c r="AC46" s="12" t="s">
         <v>0</v>
       </c>
       <c r="AD46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AE46" s="2"/>
+      <c r="AE46" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="AF46" s="2"/>
       <c r="AG46" s="2"/>
       <c r="AH46" s="2"/>
@@ -6503,7 +6578,7 @@
       <c r="AK46" s="2"/>
       <c r="AL46" s="2"/>
     </row>
-    <row r="47" spans="1:38" ht="12.2" customHeight="1">
+    <row r="47" spans="1:38" ht="17.25" customHeight="1">
       <c r="A47" s="13"/>
       <c r="B47" s="13" t="s">
         <v>0</v>
@@ -6540,55 +6615,57 @@
       <c r="N47" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O47" s="26">
-        <v>0</v>
-      </c>
-      <c r="P47" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="26">
-        <v>0</v>
-      </c>
-      <c r="R47" s="26">
-        <v>0</v>
-      </c>
-      <c r="S47" s="26">
-        <v>0</v>
-      </c>
-      <c r="T47" s="26">
-        <v>0</v>
-      </c>
-      <c r="U47" s="26">
-        <v>0</v>
-      </c>
-      <c r="V47" s="26">
-        <v>0</v>
-      </c>
-      <c r="W47" s="26">
-        <v>0</v>
-      </c>
-      <c r="X47" s="12" t="s">
+      <c r="O47" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P47" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="29">
+        <v>0</v>
+      </c>
+      <c r="R47" s="29">
+        <v>0</v>
+      </c>
+      <c r="S47" s="29">
+        <v>0</v>
+      </c>
+      <c r="T47" s="29">
+        <v>0</v>
+      </c>
+      <c r="U47" s="29">
+        <v>0</v>
+      </c>
+      <c r="V47" s="29">
+        <v>0</v>
+      </c>
+      <c r="W47" s="29">
+        <v>0</v>
+      </c>
+      <c r="X47" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="Y47" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="12" t="s">
+      <c r="Z47" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="AB47" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE47" s="2"/>
+      <c r="AC47" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="31" t="s">
+        <v>0</v>
+      </c>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
@@ -6597,7 +6674,7 @@
       <c r="AK47" s="2"/>
       <c r="AL47" s="2"/>
     </row>
-    <row r="48" spans="1:38" ht="12.2" customHeight="1">
+    <row r="48" spans="1:38" ht="17.25" customHeight="1">
       <c r="A48" s="12" t="s">
         <v>116</v>
       </c>
@@ -6636,55 +6713,57 @@
       <c r="N48" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O48" s="26">
-        <v>283.38</v>
-      </c>
-      <c r="P48" s="26">
-        <v>283.38</v>
-      </c>
-      <c r="Q48" s="26">
-        <v>283.38</v>
-      </c>
-      <c r="R48" s="26">
-        <v>283.38</v>
-      </c>
-      <c r="S48" s="27">
-        <v>2734.29</v>
-      </c>
-      <c r="T48" s="27">
-        <v>2734.29</v>
-      </c>
-      <c r="U48" s="27">
-        <v>2734.29</v>
-      </c>
-      <c r="V48" s="27">
-        <v>2734.29</v>
-      </c>
-      <c r="W48" s="27">
-        <v>2734.29</v>
-      </c>
-      <c r="X48" s="12" t="s">
+      <c r="O48" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P48" s="29">
+        <v>150.49</v>
+      </c>
+      <c r="Q48" s="29">
+        <v>150.49</v>
+      </c>
+      <c r="R48" s="29">
+        <v>150.49</v>
+      </c>
+      <c r="S48" s="29">
+        <v>150.49</v>
+      </c>
+      <c r="T48" s="30">
+        <v>7033.93</v>
+      </c>
+      <c r="U48" s="30">
+        <v>7033.93</v>
+      </c>
+      <c r="V48" s="30">
+        <v>7033.93</v>
+      </c>
+      <c r="W48" s="30">
+        <v>7033.93</v>
+      </c>
+      <c r="X48" s="30">
+        <v>7033.93</v>
+      </c>
+      <c r="Y48" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="Y48" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="12" t="s">
+      <c r="Z48" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="AB48" s="12" t="s">
-        <v>0</v>
-      </c>
       <c r="AC48" s="12" t="s">
         <v>0</v>
       </c>
       <c r="AD48" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AE48" s="2"/>
+      <c r="AE48" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="AF48" s="2"/>
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
@@ -6693,7 +6772,7 @@
       <c r="AK48" s="2"/>
       <c r="AL48" s="2"/>
     </row>
-    <row r="49" spans="1:38" ht="17.25" customHeight="1">
+    <row r="49" spans="1:38" ht="12.2" customHeight="1">
       <c r="A49" s="13"/>
       <c r="B49" s="13" t="s">
         <v>0</v>
@@ -6730,55 +6809,57 @@
       <c r="N49" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O49" s="26">
-        <v>121.45</v>
-      </c>
-      <c r="P49" s="26">
-        <v>121.45</v>
-      </c>
-      <c r="Q49" s="26">
-        <v>121.45</v>
-      </c>
-      <c r="R49" s="26">
-        <v>121.45</v>
-      </c>
-      <c r="S49" s="27">
-        <v>1171.8399999999999</v>
-      </c>
-      <c r="T49" s="27">
-        <v>1171.8399999999999</v>
-      </c>
-      <c r="U49" s="27">
-        <v>1171.8399999999999</v>
-      </c>
-      <c r="V49" s="27">
-        <v>1171.8399999999999</v>
-      </c>
-      <c r="W49" s="27">
-        <v>1171.8399999999999</v>
-      </c>
-      <c r="X49" s="28" t="s">
+      <c r="O49" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P49" s="29">
+        <v>64.5</v>
+      </c>
+      <c r="Q49" s="29">
+        <v>64.5</v>
+      </c>
+      <c r="R49" s="29">
+        <v>64.5</v>
+      </c>
+      <c r="S49" s="29">
+        <v>64.5</v>
+      </c>
+      <c r="T49" s="30">
+        <v>3014.2</v>
+      </c>
+      <c r="U49" s="30">
+        <v>3014.2</v>
+      </c>
+      <c r="V49" s="30">
+        <v>3014.2</v>
+      </c>
+      <c r="W49" s="30">
+        <v>3014.2</v>
+      </c>
+      <c r="X49" s="30">
+        <v>3014.2</v>
+      </c>
+      <c r="Y49" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="Y49" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="28" t="s">
+      <c r="Z49" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AB49" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE49" s="2"/>
+      <c r="AC49" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="AF49" s="2"/>
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
@@ -6787,7 +6868,7 @@
       <c r="AK49" s="2"/>
       <c r="AL49" s="2"/>
     </row>
-    <row r="50" spans="1:38" ht="17.25" customHeight="1">
+    <row r="50" spans="1:38" ht="12.2" customHeight="1">
       <c r="A50" s="13"/>
       <c r="B50" s="13" t="s">
         <v>0</v>
@@ -6824,55 +6905,57 @@
       <c r="N50" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O50" s="26">
-        <v>80.97</v>
-      </c>
-      <c r="P50" s="26">
-        <v>80.97</v>
-      </c>
-      <c r="Q50" s="26">
-        <v>80.97</v>
-      </c>
-      <c r="R50" s="26">
-        <v>80.97</v>
-      </c>
-      <c r="S50" s="26">
-        <v>781.23</v>
-      </c>
-      <c r="T50" s="26">
-        <v>781.23</v>
-      </c>
-      <c r="U50" s="26">
-        <v>781.23</v>
-      </c>
-      <c r="V50" s="26">
-        <v>781.23</v>
-      </c>
-      <c r="W50" s="26">
-        <v>781.23</v>
-      </c>
-      <c r="X50" s="28" t="s">
+      <c r="O50" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P50" s="29">
+        <v>43</v>
+      </c>
+      <c r="Q50" s="29">
+        <v>43</v>
+      </c>
+      <c r="R50" s="29">
+        <v>43</v>
+      </c>
+      <c r="S50" s="29">
+        <v>43</v>
+      </c>
+      <c r="T50" s="30">
+        <v>2009.47</v>
+      </c>
+      <c r="U50" s="30">
+        <v>2009.47</v>
+      </c>
+      <c r="V50" s="30">
+        <v>2009.47</v>
+      </c>
+      <c r="W50" s="30">
+        <v>2009.47</v>
+      </c>
+      <c r="X50" s="30">
+        <v>2009.47</v>
+      </c>
+      <c r="Y50" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="Y50" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="28" t="s">
+      <c r="Z50" s="12" t="s">
         <v>0</v>
       </c>
       <c r="AA50" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AB50" s="12" t="s">
-        <v>0</v>
-      </c>
       <c r="AC50" s="12" t="s">
         <v>0</v>
       </c>
       <c r="AD50" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AE50" s="2"/>
+      <c r="AE50" s="12" t="s">
+        <v>0</v>
+      </c>
       <c r="AF50" s="2"/>
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
@@ -6882,81 +6965,83 @@
       <c r="AL50" s="2"/>
     </row>
     <row r="51" spans="1:38" ht="38.1" customHeight="1">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="B51" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="L51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="R51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="U51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="V51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="W51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="X51" s="17"/>
-      <c r="Y51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="17"/>
-      <c r="AB51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="2"/>
+      <c r="B51" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L51" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="O51" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="R51" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="S51" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="T51" s="18"/>
+      <c r="U51" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="V51" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="W51" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="X51" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="18"/>
+      <c r="Z51" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="18"/>
+      <c r="AC51" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="18" t="s">
+        <v>0</v>
+      </c>
       <c r="AF51" s="2"/>
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
@@ -6965,86 +7050,86 @@
       <c r="AK51" s="2"/>
       <c r="AL51" s="2"/>
     </row>
-    <row r="52" spans="1:38" ht="62.65" customHeight="1">
-      <c r="A52" s="16" t="s">
+    <row r="52" spans="1:38" ht="29.25" customHeight="1">
+      <c r="A52" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H52" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I52" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="L52" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="M52" s="18" t="s">
+      <c r="B52" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M52" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="N52" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="R52" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="S52" s="19"/>
-      <c r="T52" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="U52" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="V52" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="W52" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="X52" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y52" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="21"/>
-      <c r="AB52" s="21" t="s">
-        <v>0</v>
-      </c>
+      <c r="N52" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="O52" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R52" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S52" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="T52" s="21"/>
+      <c r="U52" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="V52" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="W52" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="X52" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="21"/>
+      <c r="Z52" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="21"/>
       <c r="AC52" s="21" t="s">
         <v>0</v>
       </c>
       <c r="AD52" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="AE52" s="2"/>
+      <c r="AE52" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="AF52" s="2"/>
       <c r="AG52" s="2"/>
       <c r="AH52" s="2"/>
@@ -7053,351 +7138,441 @@
       <c r="AK52" s="2"/>
       <c r="AL52" s="2"/>
     </row>
+    <row r="53" spans="1:38" ht="33.4" customHeight="1">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M53" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="N53" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O53" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="R53" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="S53" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="T53" s="23"/>
+      <c r="U53" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="V53" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="W53" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="X53" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z53" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="25"/>
+      <c r="AC53" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="2"/>
+      <c r="AG53" s="2"/>
+      <c r="AH53" s="2"/>
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="2"/>
+      <c r="AK53" s="2"/>
+      <c r="AL53" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="341">
-    <mergeCell ref="AE46:AL46"/>
-    <mergeCell ref="AE47:AL47"/>
-    <mergeCell ref="AE48:AL48"/>
-    <mergeCell ref="AE49:AL49"/>
-    <mergeCell ref="AE50:AL50"/>
-    <mergeCell ref="AE51:AL51"/>
-    <mergeCell ref="AE52:AL52"/>
-    <mergeCell ref="AE29:AL29"/>
-    <mergeCell ref="AE30:AL30"/>
-    <mergeCell ref="AE31:AL31"/>
-    <mergeCell ref="AE32:AL32"/>
-    <mergeCell ref="AE33:AL33"/>
-    <mergeCell ref="AE34:AL34"/>
-    <mergeCell ref="AE35:AL35"/>
-    <mergeCell ref="AE36:AL36"/>
-    <mergeCell ref="AE37:AL37"/>
-    <mergeCell ref="AE38:AL38"/>
-    <mergeCell ref="AE39:AL39"/>
-    <mergeCell ref="AE40:AL40"/>
-    <mergeCell ref="AE41:AL41"/>
-    <mergeCell ref="AE42:AL42"/>
-    <mergeCell ref="AE43:AL43"/>
-    <mergeCell ref="AE44:AL44"/>
-    <mergeCell ref="AE45:AL45"/>
-    <mergeCell ref="AA50:AD50"/>
-    <mergeCell ref="X50:Z50"/>
-    <mergeCell ref="S50:W50"/>
-    <mergeCell ref="O50:R50"/>
-    <mergeCell ref="AE1:AL1"/>
-    <mergeCell ref="AE2:AL2"/>
-    <mergeCell ref="AE3:AL3"/>
-    <mergeCell ref="AE4:AL4"/>
-    <mergeCell ref="AE5:AL5"/>
-    <mergeCell ref="AE6:AL6"/>
-    <mergeCell ref="AE7:AL7"/>
-    <mergeCell ref="AE8:AL8"/>
-    <mergeCell ref="AE9:AL9"/>
-    <mergeCell ref="AE10:AL10"/>
-    <mergeCell ref="AE11:AL11"/>
-    <mergeCell ref="AE12:AL12"/>
-    <mergeCell ref="AE13:AL13"/>
-    <mergeCell ref="AE14:AL14"/>
-    <mergeCell ref="AE15:AL15"/>
-    <mergeCell ref="AE16:AL16"/>
-    <mergeCell ref="AE17:AL17"/>
-    <mergeCell ref="AE18:AL18"/>
-    <mergeCell ref="AE19:AL19"/>
-    <mergeCell ref="AE20:AL20"/>
-    <mergeCell ref="AE21:AL21"/>
-    <mergeCell ref="AE22:AL22"/>
-    <mergeCell ref="AE23:AL23"/>
-    <mergeCell ref="AE24:AL24"/>
-    <mergeCell ref="AE25:AL25"/>
-    <mergeCell ref="AE26:AL26"/>
-    <mergeCell ref="AE27:AL27"/>
-    <mergeCell ref="AE28:AL28"/>
-    <mergeCell ref="AA45:AD45"/>
-    <mergeCell ref="X45:Z45"/>
-    <mergeCell ref="S45:W45"/>
-    <mergeCell ref="O45:R45"/>
-    <mergeCell ref="AA46:AD46"/>
-    <mergeCell ref="X46:Z46"/>
-    <mergeCell ref="S46:W46"/>
-    <mergeCell ref="O46:R46"/>
-    <mergeCell ref="AA47:AD47"/>
-    <mergeCell ref="X47:Z47"/>
-    <mergeCell ref="S47:W47"/>
-    <mergeCell ref="O47:R47"/>
-    <mergeCell ref="AA48:AD48"/>
-    <mergeCell ref="X48:Z48"/>
-    <mergeCell ref="S48:W48"/>
-    <mergeCell ref="O48:R48"/>
-    <mergeCell ref="AA49:AD49"/>
-    <mergeCell ref="X49:Z49"/>
-    <mergeCell ref="S49:W49"/>
-    <mergeCell ref="O49:R49"/>
-    <mergeCell ref="AA40:AD40"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="S40:W40"/>
-    <mergeCell ref="O40:R40"/>
-    <mergeCell ref="AA41:AD41"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="S41:W41"/>
-    <mergeCell ref="O41:R41"/>
-    <mergeCell ref="AA42:AD42"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="S42:W42"/>
-    <mergeCell ref="O42:R42"/>
-    <mergeCell ref="AA43:AD43"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="S43:W43"/>
-    <mergeCell ref="O43:R43"/>
-    <mergeCell ref="AA44:AD44"/>
-    <mergeCell ref="X44:Z44"/>
-    <mergeCell ref="S44:W44"/>
-    <mergeCell ref="O44:R44"/>
-    <mergeCell ref="AA35:AD35"/>
-    <mergeCell ref="X35:Z35"/>
-    <mergeCell ref="S35:W35"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="AA36:AD36"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="S36:W36"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="AA37:AD37"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="S37:W37"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="AA38:AD38"/>
-    <mergeCell ref="X38:Z38"/>
-    <mergeCell ref="S38:W38"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="AA39:AD39"/>
-    <mergeCell ref="X39:Z39"/>
-    <mergeCell ref="S39:W39"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="AA30:AD30"/>
-    <mergeCell ref="X30:Z30"/>
-    <mergeCell ref="S30:W30"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="AA31:AD31"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="S31:W31"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="AA32:AD32"/>
-    <mergeCell ref="X32:Z32"/>
-    <mergeCell ref="S32:W32"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="AA33:AD33"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="S33:W33"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="AA34:AD34"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="S34:W34"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="AA25:AD25"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="S25:W25"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="AA26:AD26"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="S26:W26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="AA27:AD27"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="S27:W27"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="AA28:AD28"/>
-    <mergeCell ref="X28:Z28"/>
-    <mergeCell ref="S28:W28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="AA29:AD29"/>
-    <mergeCell ref="X29:Z29"/>
-    <mergeCell ref="S29:W29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="AA20:AD20"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="S20:W20"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="AA21:AD21"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="S21:W21"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="AA22:AD22"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="S22:W22"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="AA23:AD23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="AA24:AD24"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="AA15:AD15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="AA16:AD16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="AA17:AD17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="S17:W17"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="AA18:AD18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="AA19:AD19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="S19:W19"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="AA11:AD11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="AA12:AD12"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="AA13:AD13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="S13:W13"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="AA14:AD14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="S14:W14"/>
-    <mergeCell ref="O14:R14"/>
+  <mergeCells count="343">
+    <mergeCell ref="AF46:AL46"/>
+    <mergeCell ref="AF47:AL47"/>
+    <mergeCell ref="AF48:AL48"/>
+    <mergeCell ref="AF49:AL49"/>
+    <mergeCell ref="AF50:AL50"/>
+    <mergeCell ref="AF51:AL51"/>
+    <mergeCell ref="AF52:AL52"/>
+    <mergeCell ref="AF53:AL53"/>
+    <mergeCell ref="AF29:AL29"/>
+    <mergeCell ref="AF30:AL30"/>
+    <mergeCell ref="AF31:AL31"/>
+    <mergeCell ref="AF32:AL32"/>
+    <mergeCell ref="AF33:AL33"/>
+    <mergeCell ref="AF34:AL34"/>
+    <mergeCell ref="AF35:AL35"/>
+    <mergeCell ref="AF36:AL36"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AF38:AL38"/>
+    <mergeCell ref="AF39:AL39"/>
+    <mergeCell ref="AF40:AL40"/>
+    <mergeCell ref="AF41:AL41"/>
+    <mergeCell ref="AF42:AL42"/>
+    <mergeCell ref="AF43:AL43"/>
+    <mergeCell ref="AF44:AL44"/>
+    <mergeCell ref="AF45:AL45"/>
+    <mergeCell ref="AB50:AE50"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="T50:X50"/>
+    <mergeCell ref="P50:S50"/>
+    <mergeCell ref="AF1:AL1"/>
+    <mergeCell ref="AF2:AL2"/>
+    <mergeCell ref="AF3:AL3"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="AF6:AL6"/>
+    <mergeCell ref="AF7:AL7"/>
+    <mergeCell ref="AF8:AL8"/>
+    <mergeCell ref="AF9:AL9"/>
+    <mergeCell ref="AF10:AL10"/>
+    <mergeCell ref="AF11:AL11"/>
+    <mergeCell ref="AF12:AL12"/>
+    <mergeCell ref="AF13:AL13"/>
+    <mergeCell ref="AF14:AL14"/>
+    <mergeCell ref="AF15:AL15"/>
+    <mergeCell ref="AF16:AL16"/>
+    <mergeCell ref="AF17:AL17"/>
+    <mergeCell ref="AF18:AL18"/>
+    <mergeCell ref="AF19:AL19"/>
+    <mergeCell ref="AF20:AL20"/>
+    <mergeCell ref="AF21:AL21"/>
+    <mergeCell ref="AF22:AL22"/>
+    <mergeCell ref="AF23:AL23"/>
+    <mergeCell ref="AF24:AL24"/>
+    <mergeCell ref="AF25:AL25"/>
+    <mergeCell ref="AF26:AL26"/>
+    <mergeCell ref="AF27:AL27"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AB45:AE45"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="T45:X45"/>
+    <mergeCell ref="P45:S45"/>
+    <mergeCell ref="AB46:AE46"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="T46:X46"/>
+    <mergeCell ref="P46:S46"/>
+    <mergeCell ref="AB47:AE47"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="T47:X47"/>
+    <mergeCell ref="P47:S47"/>
+    <mergeCell ref="AB48:AE48"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="T48:X48"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="AB49:AE49"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="T49:X49"/>
+    <mergeCell ref="P49:S49"/>
+    <mergeCell ref="AB40:AE40"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="T40:X40"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="AB41:AE41"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="T41:X41"/>
+    <mergeCell ref="P41:S41"/>
+    <mergeCell ref="AB42:AE42"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="T42:X42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="AB43:AE43"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="T43:X43"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="AB44:AE44"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="T44:X44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="AB35:AE35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="AB36:AE36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="T36:X36"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="AB37:AE37"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="T37:X37"/>
+    <mergeCell ref="P37:S37"/>
+    <mergeCell ref="AB38:AE38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="T38:X38"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="AB39:AE39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="T39:X39"/>
+    <mergeCell ref="P39:S39"/>
+    <mergeCell ref="AB30:AE30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="T30:X30"/>
+    <mergeCell ref="P30:S30"/>
+    <mergeCell ref="AB31:AE31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="T31:X31"/>
+    <mergeCell ref="P31:S31"/>
+    <mergeCell ref="AB32:AE32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="T32:X32"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="AB33:AE33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="T33:X33"/>
+    <mergeCell ref="P33:S33"/>
+    <mergeCell ref="AB34:AE34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="T34:X34"/>
+    <mergeCell ref="P34:S34"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="T25:X25"/>
+    <mergeCell ref="P25:S25"/>
+    <mergeCell ref="AB26:AE26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="AB27:AE27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="T27:X27"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="AB28:AE28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="T28:X28"/>
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="AB29:AE29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="T29:X29"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="AB23:AE23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="T23:X23"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="P24:S24"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="AB16:AE16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="AB17:AE17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="AB14:AE14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="P14:S14"/>
     <mergeCell ref="A48:B50"/>
     <mergeCell ref="C48:I48"/>
-    <mergeCell ref="J48:N48"/>
+    <mergeCell ref="J48:O48"/>
     <mergeCell ref="C49:I49"/>
-    <mergeCell ref="J49:N49"/>
+    <mergeCell ref="J49:O49"/>
     <mergeCell ref="C50:I50"/>
-    <mergeCell ref="J50:N50"/>
-    <mergeCell ref="A51:AD51"/>
-    <mergeCell ref="A52:L52"/>
-    <mergeCell ref="M52:W52"/>
-    <mergeCell ref="X52:AD52"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="A51:AE51"/>
+    <mergeCell ref="A52:L53"/>
+    <mergeCell ref="M52:AE52"/>
+    <mergeCell ref="M53:X53"/>
+    <mergeCell ref="Y53:AE53"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AA6:AD6"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="M6:O6"/>
     <mergeCell ref="J6:L6"/>
-    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="T7:X7"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="D7:I7"/>
-    <mergeCell ref="AA9:AD9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="AA10:AD10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="Y10:AA10"/>
     <mergeCell ref="A34:B47"/>
     <mergeCell ref="C34:I34"/>
-    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="J34:O34"/>
     <mergeCell ref="C35:I35"/>
-    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="J35:O35"/>
     <mergeCell ref="C36:I36"/>
-    <mergeCell ref="J36:N36"/>
+    <mergeCell ref="J36:O36"/>
     <mergeCell ref="C37:I37"/>
-    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="J37:O37"/>
     <mergeCell ref="C38:I38"/>
-    <mergeCell ref="J38:N38"/>
+    <mergeCell ref="J38:O38"/>
     <mergeCell ref="C39:I39"/>
-    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="J39:O39"/>
     <mergeCell ref="C40:I40"/>
-    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="J40:O40"/>
     <mergeCell ref="C41:I41"/>
-    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="J41:O41"/>
     <mergeCell ref="C42:I42"/>
-    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="J42:O42"/>
     <mergeCell ref="C43:I43"/>
-    <mergeCell ref="J43:N43"/>
+    <mergeCell ref="J43:O43"/>
     <mergeCell ref="C44:I44"/>
-    <mergeCell ref="J44:N44"/>
+    <mergeCell ref="J44:O44"/>
     <mergeCell ref="C45:I45"/>
-    <mergeCell ref="J45:N45"/>
+    <mergeCell ref="J45:O45"/>
     <mergeCell ref="C46:I46"/>
-    <mergeCell ref="J46:N46"/>
+    <mergeCell ref="J46:O46"/>
     <mergeCell ref="C47:I47"/>
-    <mergeCell ref="J47:N47"/>
+    <mergeCell ref="J47:O47"/>
     <mergeCell ref="A20:B33"/>
     <mergeCell ref="C20:I20"/>
-    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="J20:O20"/>
     <mergeCell ref="C21:I21"/>
-    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="J21:O21"/>
     <mergeCell ref="C22:I22"/>
-    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="J22:O22"/>
     <mergeCell ref="C23:I23"/>
-    <mergeCell ref="J23:N23"/>
+    <mergeCell ref="J23:O23"/>
     <mergeCell ref="C24:I24"/>
-    <mergeCell ref="J24:N24"/>
+    <mergeCell ref="J24:O24"/>
     <mergeCell ref="C25:I25"/>
-    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="J25:O25"/>
     <mergeCell ref="C26:I26"/>
-    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="J26:O26"/>
     <mergeCell ref="C27:I27"/>
-    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="J27:O27"/>
     <mergeCell ref="C28:I28"/>
-    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="J28:O28"/>
     <mergeCell ref="C29:I29"/>
-    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="J29:O29"/>
     <mergeCell ref="C30:I30"/>
-    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="J30:O30"/>
     <mergeCell ref="C31:I31"/>
-    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="J31:O31"/>
     <mergeCell ref="C32:I32"/>
-    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="J32:O32"/>
     <mergeCell ref="C33:I33"/>
-    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="J33:O33"/>
     <mergeCell ref="A10:B19"/>
     <mergeCell ref="C10:I10"/>
-    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="J10:O10"/>
     <mergeCell ref="C11:I11"/>
-    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="J11:O11"/>
     <mergeCell ref="C12:I12"/>
-    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="J12:O12"/>
     <mergeCell ref="C13:I13"/>
-    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="J13:O13"/>
     <mergeCell ref="C14:I14"/>
-    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="J14:O14"/>
     <mergeCell ref="C15:I15"/>
-    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="J15:O15"/>
     <mergeCell ref="C16:I16"/>
-    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="J16:O16"/>
     <mergeCell ref="C17:I17"/>
-    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="J17:O17"/>
     <mergeCell ref="C18:I18"/>
-    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="J18:O18"/>
     <mergeCell ref="C19:I19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="J1:AD1"/>
-    <mergeCell ref="M2:AD2"/>
-    <mergeCell ref="A3:AD3"/>
+    <mergeCell ref="J19:O19"/>
+    <mergeCell ref="J1:AE1"/>
+    <mergeCell ref="M2:AE2"/>
+    <mergeCell ref="A3:AE3"/>
     <mergeCell ref="A4:L4"/>
-    <mergeCell ref="M4:W4"/>
-    <mergeCell ref="X4:AD4"/>
+    <mergeCell ref="M4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="A5:L5"/>
-    <mergeCell ref="M5:W5"/>
-    <mergeCell ref="X5:AD5"/>
+    <mergeCell ref="M5:X5"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="X7:AD7"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="Y7:AE7"/>
     <mergeCell ref="A8:I9"/>
-    <mergeCell ref="J8:N9"/>
-    <mergeCell ref="O8:W8"/>
-    <mergeCell ref="X8:AD8"/>
+    <mergeCell ref="J8:O9"/>
+    <mergeCell ref="P8:X8"/>
+    <mergeCell ref="Y8:AE8"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>